--- a/flows/IGLD_fund_flow_data.xlsx
+++ b/flows/IGLD_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B753"/>
+  <dimension ref="A1:B771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7965,6 +7965,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>0.94135</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>-1.8966</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
